--- a/resultados_completos2.xlsx
+++ b/resultados_completos2.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Ángulos de Contacto" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -27,17 +29,24 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004F81BD"/>
+        <bgColor rgb="004F81BD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,20 +54,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,6 +442,18 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -486,4536 +508,4536 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0001.jpg</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="4" t="n">
         <v>89.92987068918467</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="4" t="n">
         <v>-89.89804886554737</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="4" t="n">
         <v>179.827919554732</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="4" t="n">
         <v>366.668339483559</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="4" t="n">
         <v>58.63389410766994</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="4" t="n">
         <v>0.7242718731450407</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="4" t="n">
         <v>0.2900763358778626</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0002.jpg</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="3" t="n">
         <v>4.869023273931249e-05</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="4" t="n">
         <v>89.87991991523862</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4" t="n">
         <v>-89.87963959680332</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="4" t="n">
         <v>179.7595595120419</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="4" t="n">
         <v>105.0276109071696</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="4" t="n">
         <v>105.0276109071696</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="4" t="n">
         <v>2.706117866046196e-16</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="4" t="n">
         <v>0.4351145038167938</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0003.jpg</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="3" t="n">
         <v>9.738046547862498e-05</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="4" t="n">
         <v>89.99970501057355</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="4" t="n">
         <v>-89.99788884244997</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="4" t="n">
         <v>179.9975938530235</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="4" t="n">
         <v>1217.423516191456</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="4" t="n">
         <v>1200.904021829024</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="4" t="n">
         <v>0.006830958215012684</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="4" t="n">
         <v>0.5114503816793892</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0004.jpg</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="3" t="n">
         <v>0.0001460706982179375</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="4" t="n">
         <v>89.83502336895748</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="4" t="n">
         <v>-89.99893775330669</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="4" t="n">
         <v>179.8339611222642</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="4" t="n">
         <v>1755.432608078406</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="4" t="n">
         <v>1879.718463917815</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="4" t="n">
         <v>0.03419001119289324</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="4" t="n">
         <v>0.5648854961832062</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0005.jpg</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="3" t="n">
         <v>0.00019476093095725</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="4" t="n">
         <v>89.80284316499662</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="4" t="n">
         <v>-89.70530784897535</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="4" t="n">
         <v>179.508151013972</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="4" t="n">
         <v>4227.458537653898</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="4" t="n">
         <v>3663.401628095888</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="4" t="n">
         <v>0.07148230962275758</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="4" t="n">
         <v>0.5877862595419848</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0006.jpg</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="3" t="n">
         <v>0.0002434511636965625</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="4" t="n">
         <v>89.99979788960542</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="4" t="n">
         <v>-89.82363999633164</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="4" t="n">
         <v>179.823437885937</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="4" t="n">
         <v>3198.185271684031</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="4" t="n">
         <v>3094.490961385176</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="4" t="n">
         <v>0.01647857071589389</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="4" t="n">
         <v>0.5877862595419848</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0007.jpg</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="3" t="n">
         <v>0.000292141396435875</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="4" t="n">
         <v>89.69861732950967</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="4" t="n">
         <v>-89.69976788536297</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="4" t="n">
         <v>179.3983852148726</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="4" t="n">
         <v>3344.605877817608</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="4" t="n">
         <v>3328.086235335327</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="4" t="n">
         <v>0.002475708784722414</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="4" t="n">
         <v>0.5877862595419848</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0008.jpg</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="3" t="n">
         <v>0.0003408316291751875</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="4" t="n">
         <v>89.9910639752529</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="4" t="n">
         <v>-89.99317235492578</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="4" t="n">
         <v>179.9842363301787</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="4" t="n">
         <v>4439.197856567715</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="4" t="n">
         <v>4356.5628460292</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="4" t="n">
         <v>0.009394867974763995</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="4" t="n">
         <v>0.5877862595419848</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0009.jpg</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="3" t="n">
         <v>0.0003895218619144999</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="4" t="n">
         <v>89.5827031658593</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="4" t="n">
         <v>-89.58168594356664</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="4" t="n">
         <v>179.1643891094259</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="4" t="n">
         <v>4304.969580384725</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="4" t="n">
         <v>5910.195688692672</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="4" t="n">
         <v>0.1571414721176533</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="4" t="n">
         <v>0.5801526717557253</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0010.jpg</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="3" t="n">
         <v>0.0004382120946538125</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="4" t="n">
         <v>89.74345484916576</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="4" t="n">
         <v>-89.69274387701827</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="4" t="n">
         <v>179.436198726184</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="4" t="n">
         <v>6091.280729779553</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="4" t="n">
         <v>6684.838499802649</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="4" t="n">
         <v>0.04645837748983704</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="4" t="n">
         <v>0.5801526717557253</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0011.jpg</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="3" t="n">
         <v>0.0004869023273931249</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="4" t="n">
         <v>89.52729461402103</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="4" t="n">
         <v>-89.54133588340561</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="4" t="n">
         <v>179.0686304974266</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="4" t="n">
         <v>3904.533388947223</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="4" t="n">
         <v>4432.031153037247</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="4" t="n">
         <v>0.06327519704711085</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="4" t="n">
         <v>0.6104417670682732</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0012.jpg</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="3" t="n">
         <v>0.0005355925601324374</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="4" t="n">
         <v>89.99302241038943</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="4" t="n">
         <v>-89.99642897374817</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="4" t="n">
         <v>179.9894513841376</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="4" t="n">
         <v>3462.833101936801</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="4" t="n">
         <v>5217.655267500805</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="4" t="n">
         <v>0.2021570781365722</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="4" t="n">
         <v>0.6553191489361704</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0013.jpg</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="3" t="n">
         <v>0.0005842827928717499</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="4" t="n">
         <v>89.08003608801648</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="4" t="n">
         <v>-89.28531058517915</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="4" t="n">
         <v>178.3653466731956</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="4" t="n">
         <v>3761.242645585879</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="4" t="n">
         <v>4993.726502562814</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="4" t="n">
         <v>0.1407753512458184</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="4" t="n">
         <v>0.7031963470319635</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0014.jpg</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="3" t="n">
         <v>0.0006329730256110624</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="4" t="n">
         <v>89.97910861720719</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="4" t="n">
         <v>-89.97878074375222</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="4" t="n">
         <v>179.9578893609594</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="4" t="n">
         <v>5656.00822989963</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="4" t="n">
         <v>7266.200975724028</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="4" t="n">
         <v>0.1246066148753924</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="4" t="n">
         <v>0.7512195121951221</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0015.jpg</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="3" t="n">
         <v>0.0006816632583503749</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="4" t="n">
         <v>88.50011280738539</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="4" t="n">
         <v>-88.83210029415628</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="4" t="n">
         <v>177.3322131015417</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="4" t="n">
         <v>4546.341218179256</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="4" t="n">
         <v>5604.590922550218</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="4" t="n">
         <v>0.104251480524124</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="4" t="n">
         <v>0.814814814814815</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0016.jpg</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="3" t="n">
         <v>0.0007303534910896875</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="4" t="n">
         <v>87.97617169052222</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="4" t="n">
         <v>-87.4817378391778</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="4" t="n">
         <v>175.4579095297</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="4" t="n">
         <v>4634.120976108987</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="4" t="n">
         <v>5683.993786288067</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="4" t="n">
         <v>0.1017504490263277</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="4" t="n">
         <v>0.8800000000000001</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0017.jpg</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="3" t="n">
         <v>0.0007790437238289999</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="4" t="n">
         <v>-57.31815265028494</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="4" t="n">
         <v>56.30329449297769</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="4" t="n">
         <v>113.6214471432626</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="4" t="n">
         <v>3914.666559705863</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="4" t="n">
         <v>4404.962970066045</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="4" t="n">
         <v>0.05893248114061446</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="4" t="n">
         <v>0.9685534591194971</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J18" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0018.jpg</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="3" t="n">
         <v>0.0008277339565683124</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="4" t="n">
         <v>-33.63217946954737</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="4" t="n">
         <v>52.77829234675382</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="4" t="n">
         <v>86.41047181630118</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="4" t="n">
         <v>4435.301383583978</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="4" t="n">
         <v>5019.805406245487</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="4" t="n">
         <v>0.0618188705483728</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="4" t="n">
         <v>1.076923076923077</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0019.jpg</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="3" t="n">
         <v>0.0008764241893076249</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="4" t="n">
         <v>-17.88084620328238</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="4" t="n">
         <v>-7.904024243152844</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="4" t="n">
         <v>9.976821960129538</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="4" t="n">
         <v>5369.456448217998</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="4" t="n">
         <v>6276.031681325967</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="4" t="n">
         <v>0.07784776584916503</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="4" t="n">
         <v>1.209302325581395</v>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0020.jpg</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="3" t="n">
         <v>0.0009251144220469374</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="4" t="n">
         <v>-14.40567048927038</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="4" t="n">
         <v>13.8217954119075</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="4" t="n">
         <v>28.22746590117787</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="4" t="n">
         <v>2372.249596393654</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="4" t="n">
         <v>4060.561585633518</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="4" t="n">
         <v>0.2624532170253792</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="4" t="n">
         <v>1.495652173913044</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J21" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0021.jpg</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="3" t="n">
         <v>0.0009738046547862498</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="4" t="n">
         <v>-8.089097647846907</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="4" t="n">
         <v>12.15009217168223</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="4" t="n">
         <v>20.23918981952914</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="4" t="n">
         <v>4690.162996666814</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="4" t="n">
         <v>4732.892328613319</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="4" t="n">
         <v>0.004534551742667821</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="4" t="n">
         <v>1.752380952380953</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J22" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0022.jpg</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="3" t="n">
         <v>0.001022494887525562</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="4" t="n">
         <v>-14.94967130481406</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="4" t="n">
         <v>26.33508734751483</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="4" t="n">
         <v>41.28475865232889</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="4" t="n">
         <v>4995.936757749108</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="4" t="n">
         <v>4782.300341340806</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="4" t="n">
         <v>0.02184815261108632</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="4" t="n">
         <v>2.160919540229885</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J23" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0023.jpg</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="3" t="n">
         <v>0.001071185120264875</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="4" t="n">
         <v>1.88198613280458</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="4" t="n">
         <v>25.03514943149403</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="4" t="n">
         <v>23.15316329868945</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="4" t="n">
         <v>3160.90576910424</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="4" t="n">
         <v>3444.985114670963</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24" s="4" t="n">
         <v>0.04300394156743528</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" s="4" t="n">
         <v>2.240963855421687</v>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J24" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0024.jpg</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="3" t="n">
         <v>0.001119875353004187</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="4" t="n">
         <v>-20.14077198047564</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="4" t="n">
         <v>3.778987313652567</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="4" t="n">
         <v>23.91975929412821</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="4" t="n">
         <v>2992.519750988854</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="4" t="n">
         <v>2345.913123217489</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" s="4" t="n">
         <v>0.1211229293329823</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0025.jpg</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="3" t="n">
         <v>0.0011685655857435</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="4" t="n">
         <v>-55.10886935527826</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="4" t="n">
         <v>34.03219677889627</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="4" t="n">
         <v>89.14106613417454</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="4" t="n">
         <v>5759.548448582193</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="4" t="n">
         <v>6740.13020588654</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="4" t="n">
         <v>0.07844855731181385</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="4" t="n">
         <v>1.695238095238096</v>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J26" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0026.jpg</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="3" t="n">
         <v>0.001217255818482812</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="4" t="n">
         <v>-26.96733218180172</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="4" t="n">
         <v>26.39044964039764</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" s="4" t="n">
         <v>53.35778182219936</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="4" t="n">
         <v>4980.049077270169</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="4" t="n">
         <v>4514.951546108608</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27" s="4" t="n">
         <v>0.04898341238824029</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27" s="4" t="n">
         <v>1.52212389380531</v>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J27" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0027.jpg</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="3" t="n">
         <v>0.001265946051222125</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="4" t="n">
         <v>-17.57365089322103</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="4" t="n">
         <v>28.74999618687793</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="4" t="n">
         <v>46.32364708009896</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="4" t="n">
         <v>5512.665327049359</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="4" t="n">
         <v>5841.07568351238</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28" s="4" t="n">
         <v>0.02892529926105589</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28" s="4" t="n">
         <v>1.411764705882353</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J28" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0028.jpg</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="3" t="n">
         <v>0.001314636283961437</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="4" t="n">
         <v>-32.2245882421035</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="4" t="n">
         <v>29.29241455939564</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29" s="4" t="n">
         <v>61.51700280149915</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" s="4" t="n">
         <v>4660.985952408639</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="4" t="n">
         <v>5196.280720007469</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29" s="4" t="n">
         <v>0.05430458415990324</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29" s="4" t="n">
         <v>1.300813008130081</v>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J29" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0029.jpg</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="3" t="n">
         <v>0.00136332651670075</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="4" t="n">
         <v>-10.11098010572329</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="4" t="n">
         <v>9.930991096690388</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" s="4" t="n">
         <v>20.04197120241367</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" s="4" t="n">
         <v>4592.833658289425</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="4" t="n">
         <v>5679.489196903146</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30" s="4" t="n">
         <v>0.1057847921966769</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30" s="4" t="n">
         <v>1.25984251968504</v>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J30" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0030.jpg</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="3" t="n">
         <v>0.001412016749440062</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="4" t="n">
         <v>-40.97655094104772</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="4" t="n">
         <v>55.25748446962573</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31" s="4" t="n">
         <v>96.23403541067344</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" s="4" t="n">
         <v>3371.439859706235</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="4" t="n">
         <v>4754.998000556346</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31" s="4" t="n">
         <v>0.170253949472199</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31" s="4" t="n">
         <v>1.221374045801527</v>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J31" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0031.jpg</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="3" t="n">
         <v>0.001460706982179375</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="4" t="n">
         <v>-40.91986461215186</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="4" t="n">
         <v>43.1462325465685</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32" s="4" t="n">
         <v>84.06609715872037</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32" s="4" t="n">
         <v>5294.146178178601</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="4" t="n">
         <v>5837.389471946763</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32" s="4" t="n">
         <v>0.04880218784207409</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32" s="4" t="n">
         <v>1.170370370370371</v>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J32" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0032.jpg</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" s="3" t="n">
         <v>0.001509397214918687</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="4" t="n">
         <v>-31.24156127881291</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="4" t="n">
         <v>54.13096475061896</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33" s="4" t="n">
         <v>85.37252602943188</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33" s="4" t="n">
         <v>2787.24157330242</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="4" t="n">
         <v>4050.692979305235</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33" s="4" t="n">
         <v>0.184770912368706</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33" s="4" t="n">
         <v>1.153284671532847</v>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J33" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0033.jpg</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" s="3" t="n">
         <v>0.001558087447658</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="4" t="n">
         <v>-44.49406715294695</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="4" t="n">
         <v>32.69721930049583</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34" s="4" t="n">
         <v>77.19128645344279</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34" s="4" t="n">
         <v>4733.011590530138</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" s="4" t="n">
         <v>5238.950005383619</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34" s="4" t="n">
         <v>0.05073609740542934</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34" s="4" t="n">
         <v>1.151079136690648</v>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J34" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0034.jpg</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="3" t="n">
         <v>0.001606777680397312</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="4" t="n">
         <v>-41.11418550972066</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="4" t="n">
         <v>39.67658996961872</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35" s="4" t="n">
         <v>80.79077547933937</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35" s="4" t="n">
         <v>5582.650270653769</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" s="4" t="n">
         <v>5892.674846196594</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35" s="4" t="n">
         <v>0.02701662675226379</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35" s="4" t="n">
         <v>1.134751773049645</v>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0035.jpg</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="3" t="n">
         <v>0.001655467913136625</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="4" t="n">
         <v>-39.18276613817005</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="4" t="n">
         <v>54.47628818998483</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36" s="4" t="n">
         <v>93.65905432815488</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" s="4" t="n">
         <v>4719.635583797555</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" s="4" t="n">
         <v>4841.499499327847</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36" s="4" t="n">
         <v>0.01274575816268628</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36" s="4" t="n">
         <v>1.120567375886525</v>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="J36" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0036.jpg</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="3" t="n">
         <v>0.001704158145875937</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="4" t="n">
         <v>-51.11147538423459</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="4" t="n">
         <v>37.74702413486222</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37" s="4" t="n">
         <v>88.85849951909681</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37" s="4" t="n">
         <v>4230.134637158292</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37" s="4" t="n">
         <v>4096.529217936907</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37" s="4" t="n">
         <v>0.016045492113823</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37" s="4" t="n">
         <v>1.120567375886525</v>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J37" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0037.jpg</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" s="3" t="n">
         <v>0.00175284837861525</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="4" t="n">
         <v>-34.7285644200379</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="4" t="n">
         <v>37.14599945549257</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38" s="4" t="n">
         <v>71.87456387553047</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38" s="4" t="n">
         <v>4219.537018205736</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38" s="4" t="n">
         <v>5690.555573729388</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38" s="4" t="n">
         <v>0.1484364088304052</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38" s="4" t="n">
         <v>1.120567375886525</v>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="J38" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0038.jpg</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" s="3" t="n">
         <v>0.001801538611354562</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="4" t="n">
         <v>-38.07646446311842</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="4" t="n">
         <v>36.99216448400311</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39" s="4" t="n">
         <v>75.06862894712154</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39" s="4" t="n">
         <v>4193.007318261582</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39" s="4" t="n">
         <v>4735.782797482938</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39" s="4" t="n">
         <v>0.06078936476110655</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39" s="4" t="n">
         <v>1.134751773049645</v>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J39" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0039.jpg</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" s="3" t="n">
         <v>0.001850228844093875</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="4" t="n">
         <v>-41.16951438766818</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="4" t="n">
         <v>34.24331871115145</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40" s="4" t="n">
         <v>75.41283309881963</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40" s="4" t="n">
         <v>5233.258838459575</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40" s="4" t="n">
         <v>6101.123025949596</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40" s="4" t="n">
         <v>0.07656916785335965</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40" s="4" t="n">
         <v>1.134751773049645</v>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J40" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0040.jpg</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" s="3" t="n">
         <v>0.001898919076833187</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="4" t="n">
         <v>-35.83995605514676</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="4" t="n">
         <v>37.63484644375312</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41" s="4" t="n">
         <v>73.47480249889989</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41" s="4" t="n">
         <v>3623.212724687402</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41" s="4" t="n">
         <v>3995.123148409921</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41" s="4" t="n">
         <v>0.04881780350953656</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41" s="4" t="n">
         <v>1.120567375886525</v>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="J41" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0041.jpg</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" s="3" t="n">
         <v>0.0019476093095725</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="4" t="n">
         <v>-32.37796110313352</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="4" t="n">
         <v>17.58277277088372</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42" s="4" t="n">
         <v>49.96073387401724</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42" s="4" t="n">
         <v>3981.121033917836</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42" s="4" t="n">
         <v>5158.608808150218</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42" s="4" t="n">
         <v>0.1288317920309503</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42" s="4" t="n">
         <v>1.136690647482014</v>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="J42" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0042.jpg</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" s="3" t="n">
         <v>0.001996299542311812</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="4" t="n">
         <v>-36.88328052792311</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="4" t="n">
         <v>37.36681163593214</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" s="4" t="n">
         <v>74.25009216385524</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43" s="4" t="n">
         <v>5252.289352125983</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" s="4" t="n">
         <v>5771.215920331266</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43" s="4" t="n">
         <v>0.04707455164028863</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43" s="4" t="n">
         <v>1.151079136690647</v>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="J43" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0043.jpg</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" s="3" t="n">
         <v>0.002044989775051125</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="4" t="n">
         <v>-35.6292968912005</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="4" t="n">
         <v>35.96067622454183</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44" s="4" t="n">
         <v>71.58997311574234</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44" s="4" t="n">
         <v>4673.775936135275</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44" s="4" t="n">
         <v>4048.478894641341</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44" s="4" t="n">
         <v>0.07168983865130409</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44" s="4" t="n">
         <v>1.153284671532847</v>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="J44" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0044.jpg</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" s="3" t="n">
         <v>0.002093680007790437</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="4" t="n">
         <v>-19.49676195147146</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="4" t="n">
         <v>51.36287175116222</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45" s="4" t="n">
         <v>70.85963370263369</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45" s="4" t="n">
         <v>4575.481691453339</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45" s="4" t="n">
         <v>5262.911348630412</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45" s="4" t="n">
         <v>0.06987214826408489</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45" s="4" t="n">
         <v>1.153284671532847</v>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J45" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0045.jpg</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" s="3" t="n">
         <v>0.00214237024052975</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" s="4" t="n">
         <v>-33.14766552772078</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="4" t="n">
         <v>49.34072517482348</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46" s="4" t="n">
         <v>82.48839070254425</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46" s="4" t="n">
         <v>4631.755549694278</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46" s="4" t="n">
         <v>4196.090408001283</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46" s="4" t="n">
         <v>0.04935123967735402</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46" s="4" t="n">
         <v>1.185185185185185</v>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J46" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0046.jpg</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" s="3" t="n">
         <v>0.002191060473269062</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="4" t="n">
         <v>-28.04165125457691</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="4" t="n">
         <v>46.02235204296412</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47" s="4" t="n">
         <v>74.06400329754103</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47" s="4" t="n">
         <v>6683.276317494438</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47" s="4" t="n">
         <v>6409.536544418305</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47" s="4" t="n">
         <v>0.02090763657612854</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47" s="4" t="n">
         <v>1.203007518796992</v>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J47" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0047.jpg</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" s="3" t="n">
         <v>0.002239750706008375</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="4" t="n">
         <v>-48.71426542148777</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="4" t="n">
         <v>46.11377051551075</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48" s="4" t="n">
         <v>94.82803593699852</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48" s="4" t="n">
         <v>6161.115733292952</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48" s="4" t="n">
         <v>6256.026134727465</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48" s="4" t="n">
         <v>0.007643498193328119</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J48" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0048.jpg</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" s="3" t="n">
         <v>0.002288440938747687</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="4" t="n">
         <v>-46.77118392294157</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="4" t="n">
         <v>26.15246636783874</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49" s="4" t="n">
         <v>72.9236502907803</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49" s="4" t="n">
         <v>4732.464680017116</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49" s="4" t="n">
         <v>5140.727944337504</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49" s="4" t="n">
         <v>0.04135068359887031</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49" s="4" t="n">
         <v>1.206106870229008</v>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J49" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0049.jpg</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" s="3" t="n">
         <v>0.002337131171487</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" s="4" t="n">
         <v>-40.94513463769932</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="4" t="n">
         <v>39.48003854543763</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50" s="4" t="n">
         <v>80.42517318313695</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50" s="4" t="n">
         <v>4625.691283358196</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50" s="4" t="n">
         <v>4811.04809567267</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50" s="4" t="n">
         <v>0.01964203999597041</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50" s="4" t="n">
         <v>1.221374045801527</v>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="J50" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0050.jpg</t>
         </is>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" s="3" t="n">
         <v>0.002385821404226312</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" s="4" t="n">
         <v>-40.43416593105466</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="4" t="n">
         <v>42.50900508317329</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51" s="4" t="n">
         <v>82.94317101422794</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51" s="4" t="n">
         <v>4538.516384301189</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51" s="4" t="n">
         <v>4889.978552547838</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51" s="4" t="n">
         <v>0.03727659298760859</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51" s="4" t="n">
         <v>1.221374045801527</v>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="J51" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0051.jpg</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" s="3" t="n">
         <v>0.002434511636965625</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" s="4" t="n">
         <v>-22.31134278581263</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="4" t="n">
         <v>15.31946103498877</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52" s="4" t="n">
         <v>37.6308038208014</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52" s="4" t="n">
         <v>3914.949147296112</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52" s="4" t="n">
         <v>4433.40786837223</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52" s="4" t="n">
         <v>0.06210308448753041</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52" s="4" t="n">
         <v>1.206106870229008</v>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="J52" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0052.jpg</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" s="3" t="n">
         <v>0.002483201869704937</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" s="4" t="n">
         <v>-42.27201724007913</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="4" t="n">
         <v>55.35128117512105</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53" s="4" t="n">
         <v>97.62329841520018</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53" s="4" t="n">
         <v>4585.017241364969</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53" s="4" t="n">
         <v>5931.016848551003</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53" s="4" t="n">
         <v>0.1279949832491261</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53" s="4" t="n">
         <v>1.206106870229008</v>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="J53" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0053.jpg</t>
         </is>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" s="3" t="n">
         <v>0.00253189210244425</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" s="4" t="n">
         <v>-40.54244151274533</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="4" t="n">
         <v>41.01620602156478</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54" s="4" t="n">
         <v>81.55864753431011</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54" s="4" t="n">
         <v>2818.601310290618</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54" s="4" t="n">
         <v>4070.915083043789</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54" s="4" t="n">
         <v>0.1817709257452064</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54" s="4" t="n">
         <v>1.206106870229008</v>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J54" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0054.jpg</t>
         </is>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" s="3" t="n">
         <v>0.002580582335183562</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" s="4" t="n">
         <v>-43.99555343564288</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="4" t="n">
         <v>30.68698519570053</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55" s="4" t="n">
         <v>74.68253863134341</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55" s="4" t="n">
         <v>4634.504224007361</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55" s="4" t="n">
         <v>5770.681496140324</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55" s="4" t="n">
         <v>0.1091933678735758</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55" s="4" t="n">
         <v>1.203007518796992</v>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="J55" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0055.jpg</t>
         </is>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" s="3" t="n">
         <v>0.002629272567922875</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" s="4" t="n">
         <v>-11.74499624707278</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="4" t="n">
         <v>56.65690051260418</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56" s="4" t="n">
         <v>68.40189675967696</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56" s="4" t="n">
         <v>6326.848836637468</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56" s="4" t="n">
         <v>6446.517331178876</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56" s="4" t="n">
         <v>0.009368595010054886</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="J56" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0056.jpg</t>
         </is>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" s="3" t="n">
         <v>0.002677962800662187</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" s="4" t="n">
         <v>-44.0725669438482</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="4" t="n">
         <v>36.49095908966059</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57" s="4" t="n">
         <v>80.56352603350879</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57" s="4" t="n">
         <v>5195.029317829663</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57" s="4" t="n">
         <v>5758.974568303533</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57" s="4" t="n">
         <v>0.05148302450282816</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="J57" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0057.jpg</t>
         </is>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" s="3" t="n">
         <v>0.0027266530334015</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="4" t="n">
         <v>-48.7002342939645</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="4" t="n">
         <v>36.00847469457776</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58" s="4" t="n">
         <v>84.70870898854227</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58" s="4" t="n">
         <v>6671.893538065419</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58" s="4" t="n">
         <v>8018.388769951162</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58" s="4" t="n">
         <v>0.09165890781764971</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="J58" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0058.jpg</t>
         </is>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" s="3" t="n">
         <v>0.002775343266140812</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" s="4" t="n">
         <v>-33.37490679800661</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="4" t="n">
         <v>42.00242801713848</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59" s="4" t="n">
         <v>75.3773348151451</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59" s="4" t="n">
         <v>4479.545309356314</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59" s="4" t="n">
         <v>5786.042530132774</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59" s="4" t="n">
         <v>0.1272695963645355</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="J59" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0059.jpg</t>
         </is>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" s="3" t="n">
         <v>0.002824033498880125</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60" s="4" t="n">
         <v>-49.37516872037694</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="4" t="n">
         <v>40.31065634538629</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60" s="4" t="n">
         <v>89.68582506576323</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60" s="4" t="n">
         <v>7511.909703316476</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60" s="4" t="n">
         <v>6857.956144039487</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60" s="4" t="n">
         <v>0.04550867532262422</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="J60" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0060.jpg</t>
         </is>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" s="3" t="n">
         <v>0.002872723731619437</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" s="4" t="n">
         <v>-43.53682864417468</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="4" t="n">
         <v>37.61868762882168</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61" s="4" t="n">
         <v>81.15551627299635</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61" s="4" t="n">
         <v>5775.180340837151</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61" s="4" t="n">
         <v>5754.71407594112</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61" s="4" t="n">
         <v>0.001775060911767647</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="J61" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0061.jpg</t>
         </is>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" s="3" t="n">
         <v>0.00292141396435875</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" s="4" t="n">
         <v>-44.92545171113876</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62" s="4" t="n">
         <v>25.73372169750338</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62" s="4" t="n">
         <v>70.65917340864213</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62" s="4" t="n">
         <v>6923.793637674977</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62" s="4" t="n">
         <v>7499.7032608195</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62" s="4" t="n">
         <v>0.03992857121941331</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="J62" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0062.jpg</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" s="3" t="n">
         <v>0.002970104197098062</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" s="4" t="n">
         <v>-45.45356358315946</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="4" t="n">
         <v>39.83827727379134</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63" s="4" t="n">
         <v>85.2918408569508</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63" s="4" t="n">
         <v>5203.769671038803</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63" s="4" t="n">
         <v>6348.206979657969</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63" s="4" t="n">
         <v>0.09906852681788776</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="J63" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0063.jpg</t>
         </is>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" s="3" t="n">
         <v>0.003018794429837374</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" s="4" t="n">
         <v>-29.09989778753142</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="4" t="n">
         <v>30.70916971497298</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64" s="4" t="n">
         <v>59.8090675025044</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64" s="4" t="n">
         <v>4816.999005747198</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64" s="4" t="n">
         <v>6234.15318807692</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64" s="4" t="n">
         <v>0.1282358759950561</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="J64" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0064.jpg</t>
         </is>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" s="3" t="n">
         <v>0.003067484662576687</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" s="4" t="n">
         <v>-39.15722846243995</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65" s="4" t="n">
         <v>45.71486850294406</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65" s="4" t="n">
         <v>84.872096965384</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65" s="4" t="n">
         <v>5119.186837607598</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65" s="4" t="n">
         <v>5350.293196081415</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65" s="4" t="n">
         <v>0.02207429191613677</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="J65" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0065.jpg</t>
         </is>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" s="3" t="n">
         <v>0.003116174895315999</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" s="4" t="n">
         <v>-25.39866251729149</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" s="4" t="n">
         <v>35.36895759940901</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66" s="4" t="n">
         <v>60.7676201167005</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66" s="4" t="n">
         <v>6371.776858319729</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66" s="4" t="n">
         <v>5758.811757765679</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66" s="4" t="n">
         <v>0.05053053235530934</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="J66" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0066.jpg</t>
         </is>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" s="3" t="n">
         <v>0.003164865128055312</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67" s="4" t="n">
         <v>-50.54234425609953</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" s="4" t="n">
         <v>50.27239550984658</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67" s="4" t="n">
         <v>100.8147397659461</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67" s="4" t="n">
         <v>5071.023530989044</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67" s="4" t="n">
         <v>4853.128770363891</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67" s="4" t="n">
         <v>0.02195600732522495</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="J67" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0067.jpg</t>
         </is>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" s="3" t="n">
         <v>0.003213555360794625</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" s="4" t="n">
         <v>-50.54071694888537</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" s="4" t="n">
         <v>43.21893943753463</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68" s="4" t="n">
         <v>93.75965638642</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68" s="4" t="n">
         <v>6871.746065431752</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68" s="4" t="n">
         <v>6362.827107945129</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68" s="4" t="n">
         <v>0.03845374919308935</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="J68" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0068.jpg</t>
         </is>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" s="3" t="n">
         <v>0.003262245593533937</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" s="4" t="n">
         <v>-42.96005782829744</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69" s="4" t="n">
         <v>15.88855970109623</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69" s="4" t="n">
         <v>58.84861752939366</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69" s="4" t="n">
         <v>6324.986951011158</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69" s="4" t="n">
         <v>6876.862932548319</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69" s="4" t="n">
         <v>0.04180292810513043</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="J69" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0069.jpg</t>
         </is>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" s="3" t="n">
         <v>0.00331093582627325</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" s="4" t="n">
         <v>-45.03118070175643</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" s="4" t="n">
         <v>46.467709578677</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70" s="4" t="n">
         <v>91.49889028043344</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70" s="4" t="n">
         <v>4807.028900683371</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70" s="4" t="n">
         <v>5598.120018188499</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70" s="4" t="n">
         <v>0.07602881262663354</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="J70" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0070.jpg</t>
         </is>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" s="3" t="n">
         <v>0.003359626059012562</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" s="4" t="n">
         <v>-6.932986083492212</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71" s="4" t="n">
         <v>42.2933202850538</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71" s="4" t="n">
         <v>49.22630636854601</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71" s="4" t="n">
         <v>6797.723712822246</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71" s="4" t="n">
         <v>7692.09393307711</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71" s="4" t="n">
         <v>0.0617240494056854</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="J71" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0071.jpg</t>
         </is>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" s="3" t="n">
         <v>0.003408316291751875</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" s="4" t="n">
         <v>-20.52155158335549</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72" s="4" t="n">
         <v>31.48145674188622</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72" s="4" t="n">
         <v>52.00300832524171</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72" s="4" t="n">
         <v>5107.818531192982</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72" s="4" t="n">
         <v>6331.218350825752</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72" s="4" t="n">
         <v>0.1069495476105911</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="J72" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0072.jpg</t>
         </is>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" s="3" t="n">
         <v>0.003457006524491187</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73" s="4" t="n">
         <v>-30.1590600970595</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73" s="4" t="n">
         <v>30.88726613828739</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73" s="4" t="n">
         <v>61.04632623534688</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73" s="4" t="n">
         <v>4501.40298912117</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73" s="4" t="n">
         <v>4481.424824786855</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73" s="4" t="n">
         <v>0.002224039550594948</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="J73" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0073.jpg</t>
         </is>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" s="3" t="n">
         <v>0.0035056967572305</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74" s="4" t="n">
         <v>-40.1221015342761</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74" s="4" t="n">
         <v>41.67739186481838</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74" s="4" t="n">
         <v>81.79949339909447</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74" s="4" t="n">
         <v>4534.442066868653</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74" s="4" t="n">
         <v>4547.502950257079</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74" s="4" t="n">
         <v>0.001438115223533781</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="J74" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0074.jpg</t>
         </is>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" s="3" t="n">
         <v>0.003554386989969812</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" s="4" t="n">
         <v>-43.82203532572778</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" s="4" t="n">
         <v>33.26716597742763</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75" s="4" t="n">
         <v>77.08920130315541</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75" s="4" t="n">
         <v>4549.062634213675</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75" s="4" t="n">
         <v>5117.457991507</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75" s="4" t="n">
         <v>0.05880040805798717</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="J75" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0075.jpg</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" s="3" t="n">
         <v>0.003603077222709125</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" s="4" t="n">
         <v>-44.07311188339939</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" s="4" t="n">
         <v>33.29343640505025</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76" s="4" t="n">
         <v>77.36654828844965</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76" s="4" t="n">
         <v>4557.322445661486</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76" s="4" t="n">
         <v>5142.237425643772</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76" s="4" t="n">
         <v>0.06030324960544566</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="J76" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0076.jpg</t>
         </is>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" s="3" t="n">
         <v>0.003651767455448437</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77" s="4" t="n">
         <v>-50.62555623689943</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="4" t="n">
         <v>34.11720121862248</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77" s="4" t="n">
         <v>84.74275745552191</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77" s="4" t="n">
         <v>5108.712632393894</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77" s="4" t="n">
         <v>5541.660146583047</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77" s="4" t="n">
         <v>0.04065092585714562</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I77" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="J77" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0077.jpg</t>
         </is>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" s="3" t="n">
         <v>0.00370045768818775</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" s="4" t="n">
         <v>-43.14278813081013</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="4" t="n">
         <v>39.37224157380442</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78" s="4" t="n">
         <v>82.51502970461455</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78" s="4" t="n">
         <v>4497.45877348955</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78" s="4" t="n">
         <v>4938.666099126515</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78" s="4" t="n">
         <v>0.04675725804745999</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="J78" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0078.jpg</t>
         </is>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" s="3" t="n">
         <v>0.003749147920927062</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" s="4" t="n">
         <v>-45.44081662808646</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="4" t="n">
         <v>45.69035593643824</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79" s="4" t="n">
         <v>91.1311725645247</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79" s="4" t="n">
         <v>3967.219224236062</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79" s="4" t="n">
         <v>4573.303847262234</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79" s="4" t="n">
         <v>0.07096574975001439</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I79" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="J79" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0079.jpg</t>
         </is>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" s="3" t="n">
         <v>0.003797838153666374</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80" s="4" t="n">
         <v>-45.47444941922768</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="4" t="n">
         <v>45.43436012886702</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80" s="4" t="n">
         <v>90.90880954809469</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80" s="4" t="n">
         <v>4520.654520322537</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80" s="4" t="n">
         <v>5151.518492468146</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80" s="4" t="n">
         <v>0.06522463683304068</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I80" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="J80" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0080.jpg</t>
         </is>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" s="3" t="n">
         <v>0.003846528386405687</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81" s="4" t="n">
         <v>-44.16286280003367</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" s="4" t="n">
         <v>45.41498793424115</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81" s="4" t="n">
         <v>89.57785073427482</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81" s="4" t="n">
         <v>5800.980995497396</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81" s="4" t="n">
         <v>5163.199726784175</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81" s="4" t="n">
         <v>0.05816953266896744</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I81" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="J81" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0081.jpg</t>
         </is>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" s="3" t="n">
         <v>0.003895218619144999</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82" s="4" t="n">
         <v>-44.16266600783901</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82" s="4" t="n">
         <v>45.05523461503535</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82" s="4" t="n">
         <v>89.21790062287437</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82" s="4" t="n">
         <v>5214.506555114493</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82" s="4" t="n">
         <v>4601.50458511691</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82" s="4" t="n">
         <v>0.06244919257326075</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="J82" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0082.jpg</t>
         </is>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" s="3" t="n">
         <v>0.003943908851884312</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83" s="4" t="n">
         <v>-45.4743903497517</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83" s="4" t="n">
         <v>45.57774273169905</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83" s="4" t="n">
         <v>91.05213308145075</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83" s="4" t="n">
         <v>5214.506555114494</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83" s="4" t="n">
         <v>4601.50458511691</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83" s="4" t="n">
         <v>0.06244919257326084</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I83" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="J83" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0083.jpg</t>
         </is>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" s="3" t="n">
         <v>0.003992599084623624</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84" s="4" t="n">
         <v>-43.69042294943387</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" s="4" t="n">
         <v>45.0923687069481</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84" s="4" t="n">
         <v>88.78279165638197</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84" s="4" t="n">
         <v>3942.402885339457</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84" s="4" t="n">
         <v>3337.697757037319</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84" s="4" t="n">
         <v>0.08306274294921241</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="J84" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0084.jpg</t>
         </is>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" s="3" t="n">
         <v>0.004041289317362937</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85" s="4" t="n">
         <v>-44.16380014662165</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" s="4" t="n">
         <v>45.54410539425185</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85" s="4" t="n">
         <v>89.7079055408735</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85" s="4" t="n">
         <v>4586.6960380723</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85" s="4" t="n">
         <v>3981.990909770162</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85" s="4" t="n">
         <v>0.07057150436035003</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="J85" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0085.jpg</t>
         </is>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" s="3" t="n">
         <v>0.00408997955010225</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86" s="4" t="n">
         <v>-44.16204638759205</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" s="4" t="n">
         <v>45.08704178134798</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86" s="4" t="n">
         <v>89.24908816894003</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86" s="4" t="n">
         <v>4586.6960380723</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86" s="4" t="n">
         <v>3981.990909770162</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86" s="4" t="n">
         <v>0.07057150436035003</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I86" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="J86" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0086.jpg</t>
         </is>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" s="3" t="n">
         <v>0.004138669782841562</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87" s="4" t="n">
         <v>-45.47439040105179</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87" s="4" t="n">
         <v>45.57774273169905</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87" s="4" t="n">
         <v>91.05213313275084</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87" s="4" t="n">
         <v>5214.469534660189</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87" s="4" t="n">
         <v>4601.50458511691</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87" s="4" t="n">
         <v>0.06244565664739127</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="J87" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0087.jpg</t>
         </is>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" s="3" t="n">
         <v>0.004187360015580874</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88" s="4" t="n">
         <v>-45.1135849188015</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88" s="4" t="n">
         <v>42.06687546085475</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88" s="4" t="n">
         <v>87.18046037965625</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88" s="4" t="n">
         <v>3876.324418820328</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88" s="4" t="n">
         <v>4515.485244707423</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88" s="4" t="n">
         <v>0.07616483827856554</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I88" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="J88" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0088.jpg</t>
         </is>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" s="3" t="n">
         <v>0.004236050248320187</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89" s="4" t="n">
         <v>-45.43993589652768</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89" s="4" t="n">
         <v>45.45000388944208</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89" s="4" t="n">
         <v>90.88993978596976</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89" s="4" t="n">
         <v>3934.143059485331</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89" s="4" t="n">
         <v>4589.82335080088</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89" s="4" t="n">
         <v>0.07692197033112574</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I89" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="J89" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0089.jpg</t>
         </is>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" s="3" t="n">
         <v>0.004284740481059499</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90" s="4" t="n">
         <v>-51.61024612184428</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="4" t="n">
         <v>45.45000388944208</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90" s="4" t="n">
         <v>97.06025001128637</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90" s="4" t="n">
         <v>4464.382608738821</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90" s="4" t="n">
         <v>4589.82335080088</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90" s="4" t="n">
         <v>0.01385441667912272</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I90" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="J90" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0090.jpg</t>
         </is>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" s="3" t="n">
         <v>0.004333430713798812</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91" s="4" t="n">
         <v>-43.87988581615939</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91" s="4" t="n">
         <v>45.44131742496589</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91" s="4" t="n">
         <v>89.32120324112527</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91" s="4" t="n">
         <v>5034.337464661706</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91" s="4" t="n">
         <v>5138.998291981491</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91" s="4" t="n">
         <v>0.01028775908152267</v>
       </c>
-      <c r="I91" t="n">
+      <c r="I91" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="J91" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0091.jpg</t>
         </is>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" s="3" t="n">
         <v>0.004382120946538125</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92" s="4" t="n">
         <v>-43.87988581615939</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92" s="4" t="n">
         <v>45.39891076050108</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92" s="4" t="n">
         <v>89.27879657666047</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92" s="4" t="n">
         <v>5034.337464661706</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92" s="4" t="n">
         <v>5134.99892005417</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92" s="4" t="n">
         <v>0.009898527453940353</v>
       </c>
-      <c r="I92" t="n">
+      <c r="I92" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="J92" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0092.jpg</t>
         </is>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" s="3" t="n">
         <v>0.004430811179277437</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" s="4" t="n">
         <v>-48.89572532331849</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93" s="4" t="n">
         <v>45.39891076050108</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93" s="4" t="n">
         <v>94.29463608381957</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93" s="4" t="n">
         <v>5050.857049121722</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93" s="4" t="n">
         <v>5134.99892005417</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93" s="4" t="n">
         <v>0.008260657836422918</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I93" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="J93" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0093.jpg</t>
         </is>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" s="3" t="n">
         <v>0.004479501412016749</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" s="4" t="n">
         <v>-48.89572532331849</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" s="4" t="n">
         <v>45.43205419826158</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94" s="4" t="n">
         <v>94.32777952158007</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94" s="4" t="n">
         <v>5050.857049121722</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94" s="4" t="n">
         <v>5134.900676702739</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94" s="4" t="n">
         <v>0.008251092343178067</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I94" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="J94" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0094.jpg</t>
         </is>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" s="3" t="n">
         <v>0.004528191644756062</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" s="4" t="n">
         <v>-46.32611034222755</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="4" t="n">
         <v>45.34162617261593</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95" s="4" t="n">
         <v>91.66773651484348</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95" s="4" t="n">
         <v>5620.811905044607</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95" s="4" t="n">
         <v>5696.595749494676</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95" s="4" t="n">
         <v>0.006696219378443382</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I95" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="J95" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0095.jpg</t>
         </is>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" s="3" t="n">
         <v>0.004576881877495375</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="4" t="n">
         <v>-50.60829233574873</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="4" t="n">
         <v>45.43097770233295</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96" s="4" t="n">
         <v>96.03927003808167</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96" s="4" t="n">
         <v>6232.06576394895</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96" s="4" t="n">
         <v>6303.687412229959</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96" s="4" t="n">
         <v>0.005713390115011826</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I96" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J96" t="inlineStr">
+      <c r="J96" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0096.jpg</t>
         </is>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" s="3" t="n">
         <v>0.004625572110234687</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" s="4" t="n">
         <v>-46.32611034222755</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97" s="4" t="n">
         <v>45.43776326796689</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97" s="4" t="n">
         <v>91.76387361019445</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97" s="4" t="n">
         <v>5620.811905044607</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97" s="4" t="n">
         <v>0.007055727822852034</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I97" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="J97" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0097.jpg</t>
         </is>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" s="3" t="n">
         <v>0.004674262342973999</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98" s="4" t="n">
         <v>-46.40968384250633</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98" s="4" t="n">
         <v>45.43776326796689</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98" s="4" t="n">
         <v>91.84744711047321</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98" s="4" t="n">
         <v>5620.811905044606</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98" s="4" t="n">
         <v>0.007055727822852115</v>
       </c>
-      <c r="I98" t="n">
+      <c r="I98" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="J98" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0098.jpg</t>
         </is>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" s="3" t="n">
         <v>0.004722952575713312</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" s="4" t="n">
         <v>-46.32611034222755</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" s="4" t="n">
         <v>45.43776326796689</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99" s="4" t="n">
         <v>91.76387361019445</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99" s="4" t="n">
         <v>5620.811905044607</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99" s="4" t="n">
         <v>0.007055727822852034</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I99" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J99" t="inlineStr">
+      <c r="J99" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0099.jpg</t>
         </is>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" s="3" t="n">
         <v>0.004771642808452625</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100" s="4" t="n">
         <v>-50.60829233574873</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100" s="4" t="n">
         <v>45.43097770233295</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100" s="4" t="n">
         <v>96.03927003808167</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100" s="4" t="n">
         <v>6232.06576394895</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100" s="4" t="n">
         <v>6303.687412229959</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100" s="4" t="n">
         <v>0.005713390115011826</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I100" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="J100" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0100.jpg</t>
         </is>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" s="3" t="n">
         <v>0.004820333041191937</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101" s="4" t="n">
         <v>-48.91193277482881</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" s="4" t="n">
         <v>45.43093818358075</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101" s="4" t="n">
         <v>94.34287095840955</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101" s="4" t="n">
         <v>5620.811905044607</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101" s="4" t="n">
         <v>0.007055727822852034</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I101" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J101" t="inlineStr">
+      <c r="J101" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="A102" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0101.jpg</t>
         </is>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" s="3" t="n">
         <v>0.004869023273931249</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102" s="4" t="n">
         <v>-50.60829233574873</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102" s="4" t="n">
         <v>45.43097770233295</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102" s="4" t="n">
         <v>96.03927003808167</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102" s="4" t="n">
         <v>6232.06576394895</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102" s="4" t="n">
         <v>6303.687412229959</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102" s="4" t="n">
         <v>0.005713390115011826</v>
       </c>
-      <c r="I102" t="n">
+      <c r="I102" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J102" t="inlineStr">
+      <c r="J102" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0102.jpg</t>
         </is>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" s="3" t="n">
         <v>0.004917713506670562</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103" s="4" t="n">
         <v>-50.53224988347155</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103" s="4" t="n">
         <v>45.43775704402739</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103" s="4" t="n">
         <v>95.97000692749894</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103" s="4" t="n">
         <v>6232.06576394895</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103" s="4" t="n">
         <v>6303.68741222996</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103" s="4" t="n">
         <v>0.005713390115011897</v>
       </c>
-      <c r="I103" t="n">
+      <c r="I103" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J103" t="inlineStr">
+      <c r="J103" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0103.jpg</t>
         </is>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" s="3" t="n">
         <v>0.004966403739409875</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104" s="4" t="n">
         <v>-50.52112900612068</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" s="4" t="n">
         <v>45.43097770233295</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104" s="4" t="n">
         <v>95.95210670845363</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104" s="4" t="n">
         <v>6215.546179488935</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104" s="4" t="n">
         <v>6303.687412229959</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H104" s="4" t="n">
         <v>0.007040465544098987</v>
       </c>
-      <c r="I104" t="n">
+      <c r="I104" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J104" t="inlineStr">
+      <c r="J104" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="A105" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0104.jpg</t>
         </is>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" s="3" t="n">
         <v>0.005015093972149187</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105" s="4" t="n">
         <v>-46.40968384250633</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" s="4" t="n">
         <v>45.43776326796689</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105" s="4" t="n">
         <v>91.84744711047321</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105" s="4" t="n">
         <v>5620.811905044606</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H105" s="4" t="n">
         <v>0.007055727822852115</v>
       </c>
-      <c r="I105" t="n">
+      <c r="I105" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J105" t="inlineStr">
+      <c r="J105" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0105.jpg</t>
         </is>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" s="3" t="n">
         <v>0.005063784204888499</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106" s="4" t="n">
         <v>-50.56361513458508</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" s="4" t="n">
         <v>45.43776326796689</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106" s="4" t="n">
         <v>96.00137840255198</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106" s="4" t="n">
         <v>5604.292320584591</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H106" s="4" t="n">
         <v>0.008527303516508948</v>
       </c>
-      <c r="I106" t="n">
+      <c r="I106" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J106" t="inlineStr">
+      <c r="J106" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="A107" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0106.jpg</t>
         </is>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" s="3" t="n">
         <v>0.005112474437627812</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107" s="4" t="n">
         <v>-50.60217443136744</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107" s="4" t="n">
         <v>45.43093818358075</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107" s="4" t="n">
         <v>96.03311261494819</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107" s="4" t="n">
         <v>5604.292320584591</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107" s="4" t="n">
         <v>0.008527303516508948</v>
       </c>
-      <c r="I107" t="n">
+      <c r="I107" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J107" t="inlineStr">
+      <c r="J107" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="A108" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0107.jpg</t>
         </is>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" s="3" t="n">
         <v>0.005161164670367124</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108" s="4" t="n">
         <v>-50.51973740131535</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108" s="4" t="n">
         <v>45.43097770233295</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108" s="4" t="n">
         <v>95.95071510364829</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108" s="4" t="n">
         <v>6215.156559923561</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108" s="4" t="n">
         <v>6303.687412229959</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H108" s="4" t="n">
         <v>0.007071807309310881</v>
       </c>
-      <c r="I108" t="n">
+      <c r="I108" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J108" t="inlineStr">
+      <c r="J108" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="A109" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0108.jpg</t>
         </is>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" s="3" t="n">
         <v>0.005209854903106437</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109" s="4" t="n">
         <v>-50.58495349940577</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109" s="4" t="n">
         <v>45.43776326796689</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109" s="4" t="n">
         <v>96.02271676737266</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109" s="4" t="n">
         <v>5608.401620774829</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G109" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H109" s="4" t="n">
         <v>0.008160842588778056</v>
       </c>
-      <c r="I109" t="n">
+      <c r="I109" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J109" t="inlineStr">
+      <c r="J109" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0109.jpg</t>
         </is>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" s="3" t="n">
         <v>0.005258545135845749</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110" s="4" t="n">
         <v>-50.56361513458508</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110" s="4" t="n">
         <v>45.43776326796689</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110" s="4" t="n">
         <v>96.00137840255198</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110" s="4" t="n">
         <v>5604.292320584591</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H110" s="4" t="n">
         <v>0.008527303516508948</v>
       </c>
-      <c r="I110" t="n">
+      <c r="I110" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J110" t="inlineStr">
+      <c r="J110" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="A111" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0110.jpg</t>
         </is>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" s="3" t="n">
         <v>0.005307235368585062</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111" s="4" t="n">
         <v>-50.56361513458508</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111" s="4" t="n">
         <v>45.43776326796689</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111" s="4" t="n">
         <v>96.00137840255198</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111" s="4" t="n">
         <v>5604.292320584591</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H111" s="4" t="n">
         <v>0.008527303516508948</v>
       </c>
-      <c r="I111" t="n">
+      <c r="I111" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J111" t="inlineStr">
+      <c r="J111" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="A112" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0111.jpg</t>
         </is>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" s="3" t="n">
         <v>0.005355925601324374</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112" s="4" t="n">
         <v>-50.56389375177978</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="4" t="n">
         <v>45.43097770233295</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112" s="4" t="n">
         <v>95.99487145411273</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112" s="4" t="n">
         <v>6198.63707214779</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G112" s="4" t="n">
         <v>6303.687412229959</v>
       </c>
-      <c r="H112" t="n">
+      <c r="H112" s="4" t="n">
         <v>0.008402464694740118</v>
       </c>
-      <c r="I112" t="n">
+      <c r="I112" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J112" t="inlineStr">
+      <c r="J112" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="A113" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0112.jpg</t>
         </is>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" s="3" t="n">
         <v>0.005404615834063687</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113" s="4" t="n">
         <v>-50.60219053655458</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113" s="4" t="n">
         <v>45.43776326796689</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113" s="4" t="n">
         <v>96.03995380452147</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113" s="4" t="n">
         <v>5587.772832808821</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="H113" t="n">
+      <c r="H113" s="4" t="n">
         <v>0.01000317757861491</v>
       </c>
-      <c r="I113" t="n">
+      <c r="I113" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J113" t="inlineStr">
+      <c r="J113" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="A114" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0113.jpg</t>
         </is>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" s="3" t="n">
         <v>0.005453306066803</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114" s="4" t="n">
         <v>-50.52595207960738</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114" s="4" t="n">
         <v>45.43776326796689</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114" s="4" t="n">
         <v>95.96371534757427</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114" s="4" t="n">
         <v>5587.383213243446</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G114" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="H114" t="n">
+      <c r="H114" s="4" t="n">
         <v>0.010038038876406</v>
       </c>
-      <c r="I114" t="n">
+      <c r="I114" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J114" t="inlineStr">
+      <c r="J114" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0114.jpg</t>
         </is>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" s="3" t="n">
         <v>0.005501996299542311</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115" s="4" t="n">
         <v>-50.60219053655458</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="4" t="n">
         <v>45.43776326796689</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115" s="4" t="n">
         <v>96.03995380452147</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115" s="4" t="n">
         <v>5587.772832808821</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H115" s="4" t="n">
         <v>0.01000317757861491</v>
       </c>
-      <c r="I115" t="n">
+      <c r="I115" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J115" t="inlineStr">
+      <c r="J115" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0115.jpg</t>
         </is>
       </c>
-      <c r="B116" t="n">
+      <c r="B116" s="3" t="n">
         <v>0.005550686532281624</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116" s="4" t="n">
         <v>-50.65056869932675</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" s="4" t="n">
         <v>45.43093818358075</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116" s="4" t="n">
         <v>96.08150688290749</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116" s="4" t="n">
         <v>5591.882132999059</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G116" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="H116" t="n">
+      <c r="H116" s="4" t="n">
         <v>0.009635643507172695</v>
       </c>
-      <c r="I116" t="n">
+      <c r="I116" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J116" t="inlineStr">
+      <c r="J116" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0116.jpg</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B117" s="3" t="n">
         <v>0.005599376765020937</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117" s="4" t="n">
         <v>-50.52595207960738</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117" s="4" t="n">
         <v>45.43776326796689</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117" s="4" t="n">
         <v>95.96371534757427</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117" s="4" t="n">
         <v>5587.383213243446</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G117" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H117" s="4" t="n">
         <v>0.010038038876406</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I117" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J117" t="inlineStr">
+      <c r="J117" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0117.jpg</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B118" s="3" t="n">
         <v>0.00564806699776025</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118" s="4" t="n">
         <v>-50.52595207960738</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118" s="4" t="n">
         <v>45.43776326796689</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118" s="4" t="n">
         <v>95.96371534757427</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118" s="4" t="n">
         <v>5587.383213243446</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H118" s="4" t="n">
         <v>0.010038038876406</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I118" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J118" t="inlineStr">
+      <c r="J118" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="A119" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0118.jpg</t>
         </is>
       </c>
-      <c r="B119" t="n">
+      <c r="B119" s="3" t="n">
         <v>0.005696757230499561</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119" s="4" t="n">
         <v>-51.46873740812738</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" s="4" t="n">
         <v>45.33334241180341</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119" s="4" t="n">
         <v>96.8020798199308</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119" s="4" t="n">
         <v>4959.609716655558</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G119" s="4" t="n">
         <v>5081.17968942668</v>
       </c>
-      <c r="H119" t="n">
+      <c r="H119" s="4" t="n">
         <v>0.01210761105072877</v>
       </c>
-      <c r="I119" t="n">
+      <c r="I119" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J119" t="inlineStr">
+      <c r="J119" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="A120" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0119.jpg</t>
         </is>
       </c>
-      <c r="B120" t="n">
+      <c r="B120" s="3" t="n">
         <v>0.005745447463238874</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120" s="4" t="n">
         <v>-50.02070725117525</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" s="4" t="n">
         <v>45.33334241180341</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120" s="4" t="n">
         <v>95.35404966297867</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120" s="4" t="n">
         <v>4963.719016845796</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120" s="4" t="n">
         <v>5081.17968942668</v>
       </c>
-      <c r="H120" t="n">
+      <c r="H120" s="4" t="n">
         <v>0.01169356466556859</v>
       </c>
-      <c r="I120" t="n">
+      <c r="I120" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J120" t="inlineStr">
+      <c r="J120" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="A121" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0120.jpg</t>
         </is>
       </c>
-      <c r="B121" t="n">
+      <c r="B121" s="3" t="n">
         <v>0.005794137695978187</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121" s="4" t="n">
         <v>-50.62770288810336</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" s="4" t="n">
         <v>45.40952013335636</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121" s="4" t="n">
         <v>96.03722302145972</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121" s="4" t="n">
         <v>5591.492513433685</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="H121" t="n">
+      <c r="H121" s="4" t="n">
         <v>0.009670479437510043</v>
       </c>
-      <c r="I121" t="n">
+      <c r="I121" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J121" t="inlineStr">
+      <c r="J121" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="A122" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0121.jpg</t>
         </is>
       </c>
-      <c r="B122" t="n">
+      <c r="B122" s="3" t="n">
         <v>0.0058428279287175</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122" s="4" t="n">
         <v>-50.02070725117525</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" s="4" t="n">
         <v>45.33334241180341</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122" s="4" t="n">
         <v>95.35404966297867</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122" s="4" t="n">
         <v>4963.719016845796</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G122" s="4" t="n">
         <v>5081.17968942668</v>
       </c>
-      <c r="H122" t="n">
+      <c r="H122" s="4" t="n">
         <v>0.01169356466556859</v>
       </c>
-      <c r="I122" t="n">
+      <c r="I122" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J122" t="inlineStr">
+      <c r="J122" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="A123" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0122.jpg</t>
         </is>
       </c>
-      <c r="B123" t="n">
+      <c r="B123" s="3" t="n">
         <v>0.005891518161456812</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123" s="4" t="n">
         <v>-50.02070725117525</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" s="4" t="n">
         <v>45.33334241180341</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123" s="4" t="n">
         <v>95.35404966297867</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F123" s="4" t="n">
         <v>4963.719016845796</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G123" s="4" t="n">
         <v>5081.17968942668</v>
       </c>
-      <c r="H123" t="n">
+      <c r="H123" s="4" t="n">
         <v>0.01169356466556859</v>
       </c>
-      <c r="I123" t="n">
+      <c r="I123" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J123" t="inlineStr">
+      <c r="J123" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="A124" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0123.jpg</t>
         </is>
       </c>
-      <c r="B124" t="n">
+      <c r="B124" s="3" t="n">
         <v>0.005940208394196124</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124" s="4" t="n">
         <v>-50.02070725117525</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" s="4" t="n">
         <v>45.33334241180341</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124" s="4" t="n">
         <v>95.35404966297867</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F124" s="4" t="n">
         <v>4963.719016845796</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G124" s="4" t="n">
         <v>5081.17968942668</v>
       </c>
-      <c r="H124" t="n">
+      <c r="H124" s="4" t="n">
         <v>0.01169356466556859</v>
       </c>
-      <c r="I124" t="n">
+      <c r="I124" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J124" t="inlineStr">
+      <c r="J124" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="A125" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0124.jpg</t>
         </is>
       </c>
-      <c r="B125" t="n">
+      <c r="B125" s="3" t="n">
         <v>0.005988898626935437</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125" s="4" t="n">
         <v>-50.02070725117525</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="4" t="n">
         <v>45.33334241180341</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125" s="4" t="n">
         <v>95.35404966297867</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125" s="4" t="n">
         <v>4963.719016845796</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G125" s="4" t="n">
         <v>5081.17968942668</v>
       </c>
-      <c r="H125" t="n">
+      <c r="H125" s="4" t="n">
         <v>0.01169356466556859</v>
       </c>
-      <c r="I125" t="n">
+      <c r="I125" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J125" t="inlineStr">
+      <c r="J125" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="A126" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0125.jpg</t>
         </is>
       </c>
-      <c r="B126" t="n">
+      <c r="B126" s="3" t="n">
         <v>0.006037588859674749</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126" s="4" t="n">
         <v>-50.62770288810336</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" s="4" t="n">
         <v>45.41143949772159</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126" s="4" t="n">
         <v>96.03914238582496</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126" s="4" t="n">
         <v>5591.492513433685</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G126" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="H126" t="n">
+      <c r="H126" s="4" t="n">
         <v>0.009670479437510043</v>
       </c>
-      <c r="I126" t="n">
+      <c r="I126" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J126" t="inlineStr">
+      <c r="J126" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="A127" s="2" t="inlineStr">
         <is>
           <t>TP4_Gota_0126.jpg</t>
         </is>
       </c>
-      <c r="B127" t="n">
+      <c r="B127" s="3" t="n">
         <v>0.006086279092414062</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127" s="4" t="n">
         <v>-50.02070725117525</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" s="4" t="n">
         <v>45.33334241180341</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127" s="4" t="n">
         <v>95.35404966297867</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127" s="4" t="n">
         <v>4963.719016845796</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G127" s="4" t="n">
         <v>5081.17968942668</v>
       </c>
-      <c r="H127" t="n">
+      <c r="H127" s="4" t="n">
         <v>0.01169356466556859</v>
       </c>
-      <c r="I127" t="n">
+      <c r="I127" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="J127" t="inlineStr">
+      <c r="J127" s="2" t="inlineStr">
         <is>
           <t>Estático</t>
         </is>
